--- a/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
+++ b/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCC4039-D42F-4AE2-BE9F-DCD64422AF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFA976-9EDC-4D9F-9153-F1D4BDE1974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Year	</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Evaluation Timeline</t>
+  </si>
+  <si>
+    <t>Semester</t>
   </si>
 </sst>
 </file>
@@ -499,27 +502,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:I55"/>
+  <dimension ref="A3:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I4"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -529,8 +533,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -542,8 +547,9 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -553,8 +559,9 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -564,37 +571,41 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -604,8 +615,9 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -615,8 +627,9 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -626,8 +639,9 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -637,8 +651,9 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -648,8 +663,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -659,8 +675,9 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -670,8 +687,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -681,8 +699,9 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -692,8 +711,9 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -703,8 +723,9 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -714,8 +735,9 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -725,8 +747,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -736,8 +759,9 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -747,8 +771,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -758,8 +783,9 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -769,8 +795,9 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -780,8 +807,9 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -791,8 +819,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -802,8 +831,9 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -813,8 +843,9 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -824,8 +855,9 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -835,8 +867,9 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -846,8 +879,9 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -857,8 +891,9 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -868,8 +903,9 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -879,8 +915,9 @@
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -890,8 +927,9 @@
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -901,8 +939,9 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -912,8 +951,9 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -923,8 +963,9 @@
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -934,8 +975,9 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -945,8 +987,9 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -956,8 +999,9 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -967,8 +1011,9 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -978,8 +1023,9 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -989,8 +1035,9 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1000,8 +1047,9 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-    </row>
-    <row r="46" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1011,8 +1059,9 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-    </row>
-    <row r="47" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1022,8 +1071,9 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-    </row>
-    <row r="48" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1033,8 +1083,9 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1044,8 +1095,9 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1055,8 +1107,9 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1066,8 +1119,9 @@
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1077,8 +1131,9 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1088,8 +1143,9 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1099,8 +1155,9 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1110,14 +1167,15 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="42" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
+++ b/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EFA976-9EDC-4D9F-9153-F1D4BDE1974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD7EA6-D53F-4106-A6F3-EC3B312FD336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -180,6 +180,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABA902D-4DE8-EE33-3E5E-CF7BBE5E82C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="1905000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -508,22 +563,22 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="1"/>
+    <col min="10" max="10" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -535,7 +590,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -549,7 +604,7 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -561,7 +616,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -573,7 +628,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,7 +660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -617,7 +672,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -629,7 +684,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -641,7 +696,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -653,7 +708,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -665,7 +720,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -677,7 +732,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -689,7 +744,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -701,7 +756,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -713,7 +768,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -725,7 +780,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -737,7 +792,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -749,7 +804,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -761,7 +816,7 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -773,7 +828,7 @@
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
     </row>
-    <row r="23" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -785,7 +840,7 @@
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -797,7 +852,7 @@
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
     </row>
-    <row r="25" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -809,7 +864,7 @@
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
     </row>
-    <row r="26" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -821,7 +876,7 @@
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
     </row>
-    <row r="27" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -833,7 +888,7 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -845,7 +900,7 @@
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
     </row>
-    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -857,7 +912,7 @@
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -869,7 +924,7 @@
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
     </row>
-    <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -881,7 +936,7 @@
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -893,7 +948,7 @@
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -905,7 +960,7 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -917,7 +972,7 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -929,7 +984,7 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
     </row>
-    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -941,7 +996,7 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -953,7 +1008,7 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -965,7 +1020,7 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -977,7 +1032,7 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -989,7 +1044,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1001,7 +1056,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
     </row>
-    <row r="42" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1013,7 +1068,7 @@
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
     </row>
-    <row r="43" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1025,7 +1080,7 @@
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
     </row>
-    <row r="44" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1037,7 +1092,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1049,7 +1104,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
     </row>
-    <row r="46" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1061,7 +1116,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
     </row>
-    <row r="47" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1073,7 +1128,7 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
     </row>
-    <row r="48" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1085,7 +1140,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
     </row>
-    <row r="49" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1097,7 +1152,7 @@
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
     </row>
-    <row r="50" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1109,7 +1164,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1121,7 +1176,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
     </row>
-    <row r="52" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1133,7 +1188,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
     </row>
-    <row r="53" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1145,7 +1200,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
     </row>
-    <row r="54" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1157,7 +1212,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
     </row>
-    <row r="55" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1176,6 +1231,7 @@
     <mergeCell ref="A6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
+++ b/API/Model/GenerateExcel/Templates/Faculty Evaluation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DD7EA6-D53F-4106-A6F3-EC3B312FD336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C0A3B9-F0F4-4159-A3B9-AE6FB5E0D1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$J$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$A$1:$K$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Year	</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Semester</t>
+  </si>
+  <si>
+    <t>Year End</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>155865</xdr:colOff>
+      <xdr:colOff>242456</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
@@ -557,28 +560,29 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:J55"/>
+  <dimension ref="A3:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -589,8 +593,9 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -603,8 +608,9 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -615,8 +621,9 @@
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -627,40 +634,44 @@
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -671,8 +682,9 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -683,8 +695,9 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -695,8 +708,9 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -707,8 +721,9 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -719,8 +734,9 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -731,8 +747,9 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -743,8 +760,9 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -755,8 +773,9 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -767,8 +786,9 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -779,8 +799,9 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -791,8 +812,9 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -803,8 +825,9 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -815,8 +838,9 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -827,8 +851,9 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -839,8 +864,9 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -851,8 +877,9 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -863,8 +890,9 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -875,8 +903,9 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -887,8 +916,9 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -899,8 +929,9 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -911,8 +942,9 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -923,8 +955,9 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -935,8 +968,9 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -947,8 +981,9 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -959,8 +994,9 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -971,8 +1007,9 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -983,8 +1020,9 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -995,8 +1033,9 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1007,8 +1046,9 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1019,8 +1059,9 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1031,8 +1072,9 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1043,8 +1085,9 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -1055,8 +1098,9 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -1067,8 +1111,9 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1079,8 +1124,9 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1091,8 +1137,9 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1103,8 +1150,9 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1115,8 +1163,9 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1127,8 +1176,9 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1139,8 +1189,9 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1151,8 +1202,9 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1163,8 +1215,9 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1175,8 +1228,9 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1187,8 +1241,9 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1199,8 +1254,9 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1211,8 +1267,9 @@
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1223,15 +1280,16 @@
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>